--- a/doc/2023年下期/【画面設計】番組登録画面（ProgramToroku.vue).xlsx
+++ b/doc/2023年下期/【画面設計】番組登録画面（ProgramToroku.vue).xlsx
@@ -192,7 +192,7 @@
     <t>5.【フォーム情報】</t>
   </si>
   <si>
-    <t>5.【DB情報】</t>
+    <t>6.【DB情報】</t>
   </si>
   <si>
     <t>（バリデーションチェックのエラー表示部）</t>
@@ -4858,7 +4858,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="27" t="s">
         <v>44</v>
       </c>
       <c r="H68" s="6"/>
@@ -31550,7 +31550,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="56"/>
     </row>
-    <row r="9" ht="46.5" customHeight="1">
+    <row r="9" ht="34.5" customHeight="1">
       <c r="A9" s="56"/>
       <c r="B9" s="59">
         <v>4.0</v>
@@ -31584,7 +31584,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
     </row>
-    <row r="10" ht="46.5" customHeight="1">
+    <row r="10" ht="38.25" customHeight="1">
       <c r="A10" s="56"/>
       <c r="B10" s="59">
         <v>5.0</v>
